--- a/2024/SENT/Rana Malli/Untitled form (Responses) (1).xlsx
+++ b/2024/SENT/Rana Malli/Untitled form (Responses) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\Rana Malli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\SENT\Rana Malli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA40E24-EA17-46A9-8C92-1A2F10FA3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E39CFA-4BDE-492F-BB17-E1866A147646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="141">
   <si>
     <t>ඔබගේ ස්ත්‍රී පුරුෂ භාවය ?</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ශ්‍රී ලාංකේය සන්දර්භය තුළ කාන්තා හිංසනයන් දැනුවත් කිරීමෙහිලා මෙම යූටියුබ් කෙටි නාට්‍ය  අන්තර්ගතය පිළිබඳ ඔබ තෘප්තිමත්ද ?</t>
   </si>
   <si>
-    <t>මෙම යූටියුබ් කෙටි නාට්‍ය හරහා කාන්තා හිංසනයන් දැනුවත් කිරීම සිදුකළද, එයට එරෙහිවීම සඳහා කාන්තාවන් පසුබට වීම පිළිබඳ ඔබේ අදහස කුමක්ද ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">යූටියුබ් කෙටි නාට්‍ය තුළ කාන්තා හිංසනයන්ට එරෙහි වීම පිළිබඳ දැනුවත් කිරීමේ ඵලදායිතාව පිළිබඳ ඔබේ අදහස දක්වන්න. </t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>තෘප්තිමත් වේ.</t>
   </si>
   <si>
-    <t>පවුල තුළ ප්‍රශ්න ඇති කර ගැනීමේ බිය.</t>
-  </si>
-  <si>
     <t>එයා ඉතා ඵලදායිවේ.</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>අතිශයින් තෘප්තිමත් නොවේ.</t>
   </si>
   <si>
-    <t>වෙනත්</t>
-  </si>
-  <si>
     <t>මානසික</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>තරමක් දුරට තෘප්තිමත් වේ.</t>
   </si>
   <si>
-    <t>සමාජයට මුහුණ දීම සඳහා ඇතිවන බිය</t>
-  </si>
-  <si>
     <t>මෙවැනි දැනුවත් කිරීම් සමාජයට ඉතා වැදගත්. විශේෂයෙන් ම අහඹු ලෙස මෙම නාට්‍ය නරඹන පිරිමි පාර්ෂවයටද ඒ පිළිබඳව හැගීමක් ඇති කරනු ඇත.</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>අදාල පිරිස් දැනුවත් කිරීම</t>
   </si>
   <si>
-    <t>තමා පිළිබඳ ආත්ම විශ්වාසය නොමැති වීම.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ඉතා වැදගත් </t>
   </si>
   <si>
@@ -207,9 +192,6 @@
   </si>
   <si>
     <t>කාන්තා හිංසනයන් සිදුකිරීම නවතා දැමීමට තීරණය කෙරෙනි</t>
-  </si>
-  <si>
-    <t>සංස්කෘතික සාධකවලට එරෙහිවීමේ නොහැකියාව</t>
   </si>
   <si>
     <t>ඒක කාන්තාවන්ට විතරක් නෙමේ. පිරිමි අයටත් හොඳයි. ඒකෙන් අපිත් දැනගන්නවා මේවගෙන් වලකින්න</t>
@@ -460,6 +442,21 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>ඔබගේ 1 2 භාවය ?</t>
+  </si>
+  <si>
+    <t>7 කාන්තා හිංසනයට එරෙහි වීම සඳහා මෙම කෙටි නාට්‍ය මඟින් කරන දැනුවත් කිරීම් කොතෙක්දුරට ඔබට වැදගත් ද?</t>
+  </si>
+  <si>
+    <t>9 කාන්තා හිංසනය පිළිබඳ මෙම කෙටි නාට්‍ය තුළ වන දැනුවත් කිරීම් හරහා ඒ පිළිබඳ ඔබට ලැබුණු අවබෝධය කෙබඳු ද?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 මෙම කෙටි නාට්‍ය නැරඹීමෙන් පසු කාන්තා හිංසනයන්ට එරෙහි වීමට කාන්තාවන්ට ඇති හැකියාව කෙබඳු ද?</t>
+  </si>
+  <si>
+    <t>14 මෙම යූටියුබ් කෙටි නාට්‍ය හරහා කාන්තා හිංසනයන් දැනුවත් කිරීම සිදුකළද, එයට එරෙහිවීම සඳහා කාන්තාවන් පසුබට වීම පිළිබඳ ඔබේ අදහස කුමක්ද ?</t>
   </si>
 </sst>
 </file>
@@ -477,6 +474,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -838,19 +836,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,13 +2199,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,10 +2511,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,18 +3150,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="21" width="21.140625" customWidth="1"/>
+    <col min="7" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" customWidth="1"/>
+    <col min="15" max="21" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3181,16 +3181,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -3202,10 +3202,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -3215,2296 +3215,2296 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
+      <c r="N3" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
+      <c r="A4" s="2">
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="2">
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="2">
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
+      <c r="A7" s="2">
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
+      <c r="A9" s="2">
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
+      <c r="A10" s="2">
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
+      <c r="N10" s="2">
+        <v>1</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+      <c r="A11" s="2">
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
+      <c r="A12" s="2">
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
+      <c r="A13" s="2">
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" s="2">
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+      <c r="A16" s="2">
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
+      <c r="A18" s="2">
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>36</v>
+      <c r="N18" s="2">
+        <v>3</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
+      <c r="A19" s="2">
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
       <c r="O19" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
+      <c r="A20" s="2">
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
+      <c r="A21" s="2">
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>36</v>
+      <c r="N21" s="2">
+        <v>3</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+      <c r="A22" s="2">
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>58</v>
+      <c r="N22" s="2">
+        <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
+      <c r="A23" s="2">
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
+      <c r="A24" s="2">
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
+      <c r="A25" s="2">
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
+      <c r="A26" s="2">
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
+      <c r="A27" s="2">
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>45</v>
+      <c r="A28" s="2">
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>15</v>
+      <c r="A29" s="2">
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
+      <c r="A30" s="2">
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
+      <c r="A31" s="2">
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L31" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
+      <c r="A32" s="2">
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L32" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>45</v>
+      <c r="A33" s="2">
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L33" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
+      <c r="A34" s="2">
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N34" s="2">
+        <v>4</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
+      <c r="A35" s="2">
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L35" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N35" s="2">
+        <v>3</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
+      <c r="A36" s="2">
+        <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L36" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
+      <c r="A37" s="2">
+        <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
+      <c r="A38" s="2">
+        <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>24</v>
+      <c r="N38" s="2">
+        <v>2</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
+      <c r="A39" s="2">
+        <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="N39" s="2">
+        <v>4</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
+      <c r="A40" s="2">
+        <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L40" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N40" s="2">
+        <v>4</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>45</v>
+      <c r="A41" s="2">
+        <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L41" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
+      <c r="A42" s="2">
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N42" s="2">
+        <v>3</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
+      <c r="A43" s="2">
+        <v>2</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
+      <c r="A44" s="2">
+        <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
+      <c r="A45" s="2">
+        <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="N45" s="2">
+        <v>3</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="2">
+        <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>58</v>
+      <c r="N46" s="2">
+        <v>4</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>58</v>
+      <c r="N47" s="2">
+        <v>4</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>45</v>
+      <c r="A48" s="2">
+        <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>58</v>
+      <c r="N48" s="2">
+        <v>4</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>45</v>
+      <c r="A49" s="2">
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>123</v>
+        <v>15</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>15</v>
+      <c r="A50" s="2">
+        <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>45</v>
+      <c r="A51" s="2">
+        <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="N51" s="2">
+        <v>5</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5528,114 +5528,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B3" si="0">C2/50</f>
@@ -5645,7 +5645,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F3" si="1">G2/50</f>
@@ -5655,7 +5655,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J3" si="2">K2/50</f>
@@ -5665,7 +5665,7 @@
         <v>50</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N3" si="3">O2/50</f>
@@ -5676,7 +5676,7 @@
         <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" ref="R2:R4" si="4">S2/50</f>
@@ -5687,7 +5687,7 @@
         <v>11</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" ref="V2:V3" si="5">W2/50</f>
@@ -5698,18 +5698,18 @@
         <v>45</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z2" s="3">
         <f t="shared" ref="Z2:Z4" si="6">AA2/50</f>
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="2">
         <f>COUNTIF('Form responses 1'!G:G,Y2)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="3">
         <f t="shared" ref="AD2:AD3" si="7">AE2/50</f>
@@ -5720,29 +5720,29 @@
         <v>42</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH2" s="3">
         <f t="shared" ref="AH2:AH3" si="8">AI2/50</f>
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="2">
         <f>COUNTIF('Form responses 1'!I:I,AG2)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="3">
         <f t="shared" ref="AL2:AL6" si="9">AM2/50</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2">
         <f>COUNTIF('Form responses 1'!J:J,AK2)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" s="3">
         <f t="shared" ref="AP2:AP3" si="10">AQ2/50</f>
@@ -5753,7 +5753,7 @@
         <v>37</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT2" s="3">
         <f t="shared" ref="AT2:AT5" si="11">AU2/50</f>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" si="0"/>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="2"/>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="3"/>
@@ -5804,7 +5804,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" si="4"/>
@@ -5815,7 +5815,7 @@
         <v>17</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="5"/>
@@ -5826,18 +5826,18 @@
         <v>5</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="3">
         <f t="shared" si="6"/>
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="2">
         <f>COUNTIF('Form responses 1'!G:G,Y3)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" si="7"/>
@@ -5848,29 +5848,29 @@
         <v>8</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH3" s="3">
         <f t="shared" si="8"/>
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="2">
         <f>COUNTIF('Form responses 1'!I:I,AG3)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL3" s="3">
         <f t="shared" si="9"/>
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="2">
         <f>COUNTIF('Form responses 1'!J:J,AK3)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP3" s="3">
         <f t="shared" si="10"/>
@@ -5881,7 +5881,7 @@
         <v>13</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT3" s="3">
         <f t="shared" si="11"/>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="Q4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="4"/>
@@ -5905,29 +5905,29 @@
         <v>5</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
         <f>COUNTIF('Form responses 1'!G:G,Y4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AL4" s="3">
         <f t="shared" si="9"/>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
         <f>COUNTIF('Form responses 1'!J:J,AK4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AT4" s="3">
         <f t="shared" si="11"/>
@@ -5940,18 +5940,18 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="AK5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL5" s="3">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="2">
         <f>COUNTIF('Form responses 1'!J:J,AK5)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AT5" s="3">
         <f t="shared" si="11"/>
@@ -5964,15 +5964,15 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="AK6" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AL6" s="3">
         <f t="shared" si="9"/>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2">
         <f>COUNTIF('Form responses 1'!J:J,AK6)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
